--- a/334 Reference Points.xlsx
+++ b/334 Reference Points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lauren Chlebove\Documents\COLLEGE\2022\FALL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{738B499B-99D5-4C21-8E32-DEB25A8879B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198D9D4A-A3B7-4D69-B592-4A3164069C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D224AF22-3D13-481B-9AD4-EFEB5EA7778D}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
